--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject35.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject35.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -203,7 +203,7 @@
         <v>0</v>
       </c>
       <c r="Z1" s="0">
-        <v>0</v>
+        <v>0.9021129836875792</v>
       </c>
       <c r="AA1" s="0">
         <v>0</v>
@@ -215,7 +215,7 @@
         <v>0</v>
       </c>
       <c r="AD1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE1" s="0">
         <v>0</v>
@@ -245,7 +245,7 @@
         <v>0</v>
       </c>
       <c r="AN1" s="0">
-        <v>0</v>
+        <v>0.68948936790214366</v>
       </c>
       <c r="AO1" s="0">
         <v>0</v>
@@ -260,7 +260,7 @@
         <v>0</v>
       </c>
       <c r="AS1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT1" s="0">
         <v>0</v>
@@ -272,7 +272,7 @@
         <v>0</v>
       </c>
       <c r="AW1" s="0">
-        <v>0</v>
+        <v>0.64604668207217375</v>
       </c>
       <c r="AX1" s="0">
         <v>0</v>
@@ -329,7 +329,7 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="0">
-        <v>0</v>
+        <v>0.65892720841075647</v>
       </c>
       <c r="J2" s="0">
         <v>0</v>
       </c>
       <c r="K2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="0">
-        <v>0</v>
+        <v>0.58141320882691705</v>
       </c>
       <c r="M2" s="0">
         <v>0</v>
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="0">
-        <v>0</v>
+        <v>0.97102022645486441</v>
       </c>
       <c r="AB2" s="0">
         <v>0</v>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="AD2" s="0">
-        <v>0</v>
+        <v>0.98250211512961483</v>
       </c>
       <c r="AE2" s="0">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="AL2" s="0">
-        <v>0</v>
+        <v>0.83481665652698922</v>
       </c>
       <c r="AM2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="BA2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="0">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="BK2" s="0">
-        <v>0</v>
+        <v>0.66940990591836269</v>
       </c>
       <c r="BL2" s="0">
         <v>0</v>
@@ -549,16 +549,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
       </c>
       <c r="G3" s="0">
-        <v>0</v>
+        <v>0.60396962950220157</v>
       </c>
       <c r="H3" s="0">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="0">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="AN3" s="0">
-        <v>0</v>
+        <v>0.5439526072406331</v>
       </c>
       <c r="AO3" s="0">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="AV3" s="0">
-        <v>0</v>
+        <v>0.85422382291063004</v>
       </c>
       <c r="AW3" s="0">
         <v>0</v>
@@ -711,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="BF3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="0">
         <v>0</v>
       </c>
       <c r="BH3" s="0">
-        <v>0</v>
+        <v>0.7743242975235114</v>
       </c>
       <c r="BI3" s="0">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="BL3" s="0">
-        <v>0</v>
+        <v>0.940125974148313</v>
       </c>
       <c r="BM3" s="0">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>0.99968334510845669</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="0">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="0">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>0</v>
       </c>
       <c r="AS4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="0">
         <v>0</v>
       </c>
       <c r="AU4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4" s="0">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="AX4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="0">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="BH4" s="0">
-        <v>0</v>
+        <v>0.69290566164662293</v>
       </c>
       <c r="BI4" s="0">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>0.70467007671096593</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>0</v>
+        <v>0.83595753692729269</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="AW5" s="0">
-        <v>0</v>
+        <v>0.72741663996191108</v>
       </c>
       <c r="AX5" s="0">
         <v>0</v>
       </c>
       <c r="AY5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="0">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="BL5" s="0">
-        <v>0</v>
+        <v>0.72023636813916925</v>
       </c>
       <c r="BM5" s="0">
         <v>0</v>
       </c>
       <c r="BN5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP5" s="0">
-        <v>0</v>
+        <v>0.9464508020095711</v>
       </c>
     </row>
     <row r="6">
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="0">
-        <v>0</v>
+        <v>0.58877676887492347</v>
       </c>
       <c r="O6" s="0">
         <v>0</v>
@@ -1230,16 +1230,16 @@
         <v>0</v>
       </c>
       <c r="Y6" s="0">
-        <v>0</v>
+        <v>0.85626572366756415</v>
       </c>
       <c r="Z6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="0">
         <v>0</v>
       </c>
       <c r="AB6" s="0">
-        <v>0</v>
+        <v>0.51649131811495175</v>
       </c>
       <c r="AC6" s="0">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="0">
-        <v>0</v>
+        <v>0.76584547244326884</v>
       </c>
       <c r="AG6" s="0">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="0">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="BD6" s="0">
-        <v>0</v>
+        <v>0.56798233298462542</v>
       </c>
       <c r="BE6" s="0">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK6" s="0">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="BP6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1370,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0</v>
+        <v>0.52752753484232107</v>
       </c>
       <c r="D7" s="0">
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>0.89426261388626993</v>
       </c>
       <c r="F7" s="0">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.6137234311158114</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="0">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="0">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="0">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="AG7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="0">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="0">
-        <v>0</v>
+        <v>0.99190243936976752</v>
       </c>
       <c r="AK7" s="0">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="AO7" s="0">
-        <v>0</v>
+        <v>0.64204004890823407</v>
       </c>
       <c r="AP7" s="0">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="AV7" s="0">
-        <v>0</v>
+        <v>0.63808308317327267</v>
       </c>
       <c r="AW7" s="0">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="BE7" s="0">
-        <v>0</v>
+        <v>0.69203475996501362</v>
       </c>
       <c r="BF7" s="0">
-        <v>0</v>
+        <v>0.59201574232861598</v>
       </c>
       <c r="BG7" s="0">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="0">
-        <v>0</v>
+        <v>0.87914054540852749</v>
       </c>
       <c r="P8" s="0">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="0">
-        <v>0</v>
+        <v>0.81997926131556953</v>
       </c>
       <c r="X8" s="0">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="0">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="AG8" s="0">
-        <v>0</v>
+        <v>0.51082861024117721</v>
       </c>
       <c r="AH8" s="0">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="AM8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="0">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="0">
-        <v>0</v>
+        <v>0.96356190245638607</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.73359504870179193</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.9657028963804084</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="0">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="AC9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="0">
-        <v>0</v>
+        <v>0.69819336875736504</v>
       </c>
       <c r="AE9" s="0">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="AO9" s="0">
-        <v>0</v>
+        <v>0.7104056607044541</v>
       </c>
       <c r="AP9" s="0">
         <v>0</v>
@@ -2039,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="T10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="0">
-        <v>0</v>
+        <v>0.59753807423932859</v>
       </c>
       <c r="V10" s="0">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="0">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="0">
-        <v>0</v>
+        <v>0.52885916362123531</v>
       </c>
       <c r="AG10" s="0">
         <v>0</v>
@@ -2102,13 +2102,13 @@
         <v>0</v>
       </c>
       <c r="AO10" s="0">
-        <v>0</v>
+        <v>0.67441895614693093</v>
       </c>
       <c r="AP10" s="0">
         <v>0</v>
       </c>
       <c r="AQ10" s="0">
-        <v>0</v>
+        <v>0.95824014750046704</v>
       </c>
       <c r="AR10" s="0">
         <v>0</v>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.60778506029254276</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="0">
-        <v>0</v>
+        <v>0.85504902102714619</v>
       </c>
       <c r="Q11" s="0">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="0">
         <v>0</v>
@@ -2272,10 +2272,10 @@
         <v>0</v>
       </c>
       <c r="AC11" s="0">
-        <v>0</v>
+        <v>0.88052299056447336</v>
       </c>
       <c r="AD11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="0">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="BM11" s="0">
-        <v>0</v>
+        <v>0.61471532761856673</v>
       </c>
       <c r="BN11" s="0">
         <v>0</v>
       </c>
       <c r="BO11" s="0">
-        <v>0</v>
+        <v>0.85465385888729073</v>
       </c>
       <c r="BP11" s="0">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="0">
-        <v>0</v>
+        <v>0.79606282101327708</v>
       </c>
       <c r="C12" s="0">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="0">
-        <v>0</v>
+        <v>0.78399147879162023</v>
       </c>
       <c r="R12" s="0">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="0">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="AW12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="0">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="BJ12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK12" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.87921668665707187</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="AG13" s="0">
-        <v>0</v>
+        <v>0.5966393349801089</v>
       </c>
       <c r="AH13" s="0">
         <v>0</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="0">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="BK13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL13" s="0">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="BP13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="0">
-        <v>0</v>
+        <v>0.69023304643924432</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
       </c>
       <c r="Q14" s="0">
-        <v>0</v>
+        <v>0.53175149768379681</v>
       </c>
       <c r="R14" s="0">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="0">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="AW14" s="0">
-        <v>0</v>
+        <v>0.60720041676750602</v>
       </c>
       <c r="AX14" s="0">
         <v>0</v>
@@ -3030,10 +3030,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="0">
-        <v>0</v>
+        <v>0.64043798509021943</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -3048,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.8759784419592016</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="0">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="0">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="0">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="AH15" s="0">
-        <v>0</v>
+        <v>0.98732828631048919</v>
       </c>
       <c r="AI15" s="0">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="0">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="AV15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW15" s="0">
         <v>0</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="BE15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="0">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="BK15" s="0">
-        <v>0</v>
+        <v>0.97163835790367747</v>
       </c>
       <c r="BL15" s="0">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="0">
-        <v>0</v>
+        <v>0.75083087229342726</v>
       </c>
       <c r="L16" s="0">
         <v>0</v>
@@ -3269,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0</v>
+        <v>0.69495220866761243</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
       </c>
       <c r="T16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="0">
         <v>0</v>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="0">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="AY16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="0">
         <v>0</v>
@@ -3457,13 +3457,13 @@
         <v>0</v>
       </c>
       <c r="L17" s="0">
-        <v>0</v>
+        <v>0.99483331603651237</v>
       </c>
       <c r="M17" s="0">
         <v>0</v>
       </c>
       <c r="N17" s="0">
-        <v>0</v>
+        <v>0.80513371023499691</v>
       </c>
       <c r="O17" s="0">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0</v>
+        <v>0.96187811998102468</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="0">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="AH17" s="0">
-        <v>0</v>
+        <v>0.72391854558777946</v>
       </c>
       <c r="AI17" s="0">
         <v>0</v>
@@ -3586,19 +3586,19 @@
         <v>0</v>
       </c>
       <c r="BC17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="0">
-        <v>0</v>
+        <v>0.88750933566758461</v>
       </c>
       <c r="BE17" s="0">
         <v>0</v>
       </c>
       <c r="BF17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH17" s="0">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0</v>
+        <v>0.51605105695940101</v>
       </c>
       <c r="Q18" s="0">
-        <v>0</v>
+        <v>0.91748532291787854</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>0.83380268156851889</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.81550733653107987</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AG18" s="0">
-        <v>0</v>
+        <v>0.59532634769114967</v>
       </c>
       <c r="AH18" s="0">
         <v>0</v>
@@ -3756,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="0">
         <v>0</v>
       </c>
       <c r="AS18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="0">
         <v>0</v>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="BG18" s="0">
-        <v>0</v>
+        <v>0.71159449793089768</v>
       </c>
       <c r="BH18" s="0">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0</v>
+        <v>0.75117849272512127</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="0">
-        <v>0</v>
+        <v>0.83729961157887434</v>
       </c>
       <c r="W19" s="0">
         <v>0</v>
@@ -3917,10 +3917,10 @@
         <v>0</v>
       </c>
       <c r="AB19" s="0">
-        <v>0</v>
+        <v>0.99675217194854171</v>
       </c>
       <c r="AC19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="0">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="BL19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM19" s="0">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="0">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="0">
         <v>0</v>
@@ -4087,13 +4087,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="0">
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.58284499737668116</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
@@ -4105,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0</v>
+        <v>0.93787341877600627</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
       </c>
       <c r="X20" s="0">
-        <v>0</v>
+        <v>0.50128353832498118</v>
       </c>
       <c r="Y20" s="0">
         <v>0</v>
@@ -4132,19 +4132,19 @@
         <v>0</v>
       </c>
       <c r="AE20" s="0">
-        <v>0</v>
+        <v>0.95180050287384343</v>
       </c>
       <c r="AF20" s="0">
         <v>0</v>
       </c>
       <c r="AG20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="0">
         <v>0</v>
       </c>
       <c r="AI20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="0">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="BH20" s="0">
-        <v>0</v>
+        <v>0.83503748758083152</v>
       </c>
       <c r="BI20" s="0">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="0">
-        <v>0</v>
+        <v>0.65684634720302748</v>
       </c>
       <c r="K21" s="0">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.99679695095948717</v>
       </c>
       <c r="W21" s="0">
-        <v>0</v>
+        <v>0.5947168142557423</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4395,10 +4395,10 @@
         <v>0</v>
       </c>
       <c r="AX21" s="0">
-        <v>0</v>
+        <v>0.88922486350212193</v>
       </c>
       <c r="AY21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="0">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="BC21" s="0">
-        <v>0</v>
+        <v>0.88711980241992827</v>
       </c>
       <c r="BD21" s="0">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="BI21" s="0">
-        <v>0</v>
+        <v>0.96533577026540307</v>
       </c>
       <c r="BJ21" s="0">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="BP21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="0">
         <v>0</v>
@@ -4502,25 +4502,25 @@
         <v>0</v>
       </c>
       <c r="Q22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="0">
         <v>0</v>
       </c>
       <c r="S22" s="0">
-        <v>0</v>
+        <v>0.65322976167291524</v>
       </c>
       <c r="T22" s="0">
-        <v>0</v>
+        <v>0.6395208181375075</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.71780273855186416</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0</v>
+        <v>0.74756728796555483</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="AN22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="0">
         <v>0</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="0">
-        <v>0</v>
+        <v>0.63711115794387296</v>
       </c>
       <c r="AY22" s="0">
         <v>0</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="BM22" s="0">
-        <v>0</v>
+        <v>0.8361581678641119</v>
       </c>
       <c r="BN22" s="0">
         <v>0</v>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="0">
-        <v>0</v>
+        <v>0.93189145405603013</v>
       </c>
       <c r="I23" s="0">
         <v>0</v>
@@ -4699,10 +4699,10 @@
         <v>0</v>
       </c>
       <c r="N23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
@@ -4720,16 +4720,16 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0</v>
+        <v>0.90483834457349355</v>
       </c>
       <c r="V23" s="0">
-        <v>0</v>
+        <v>0.93399920526337121</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0</v>
+        <v>0.96770355764718841</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="AD23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="0">
         <v>0</v>
@@ -4792,13 +4792,13 @@
         <v>0</v>
       </c>
       <c r="AS23" s="0">
-        <v>0</v>
+        <v>0.68248932884269187</v>
       </c>
       <c r="AT23" s="0">
         <v>0</v>
       </c>
       <c r="AU23" s="0">
-        <v>0</v>
+        <v>0.58612124357774509</v>
       </c>
       <c r="AV23" s="0">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="BP23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="0">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="0">
         <v>0</v>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="0">
-        <v>0</v>
+        <v>0.86499840538991823</v>
       </c>
       <c r="U24" s="0">
         <v>0</v>
@@ -4932,13 +4932,13 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>0</v>
+        <v>0.77812184046789024</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.55142490301621683</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="AD24" s="0">
-        <v>0</v>
+        <v>0.8407202983599924</v>
       </c>
       <c r="AE24" s="0">
         <v>0</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="0">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="AO24" s="0">
-        <v>0</v>
+        <v>0.69666682899452648</v>
       </c>
       <c r="AP24" s="0">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="0">
-        <v>0</v>
+        <v>0.6841135681979541</v>
       </c>
       <c r="G25" s="0">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="0">
         <v>0</v>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.6651546977563394</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5153,13 +5153,13 @@
         <v>0</v>
       </c>
       <c r="AB25" s="0">
-        <v>0</v>
+        <v>0.75589522911800722</v>
       </c>
       <c r="AC25" s="0">
         <v>0</v>
       </c>
       <c r="AD25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="0">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR25" s="0">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="AW25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX25" s="0">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="BC25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="0">
         <v>0</v>
@@ -5252,13 +5252,13 @@
         <v>0</v>
       </c>
       <c r="BI25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ25" s="0">
         <v>0</v>
       </c>
       <c r="BK25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL25" s="0">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>0</v>
+        <v>0.76624041249755703</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0</v>
+        <v>0.58941977280178448</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="0">
         <v>0</v>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="0">
         <v>0</v>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="AR26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS26" s="0">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="BD26" s="0">
-        <v>0</v>
+        <v>0.90206090561151264</v>
       </c>
       <c r="BE26" s="0">
         <v>0</v>
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="BH26" s="0">
-        <v>0</v>
+        <v>0.8922634489779685</v>
       </c>
       <c r="BI26" s="0">
         <v>0</v>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="0">
-        <v>0</v>
+        <v>0.76737488016416844</v>
       </c>
       <c r="C27" s="0">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="0">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>0.52005540350765789</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="0">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="BD27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE27" s="0">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="BN27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO27" s="0">
         <v>0</v>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="0">
-        <v>0</v>
+        <v>0.6924828255848603</v>
       </c>
       <c r="G28" s="0">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="0">
-        <v>0</v>
+        <v>0.98182022502988131</v>
       </c>
       <c r="T28" s="0">
         <v>0</v>
@@ -5762,13 +5762,13 @@
         <v>0</v>
       </c>
       <c r="Y28" s="0">
-        <v>0</v>
+        <v>0.8829747584210399</v>
       </c>
       <c r="Z28" s="0">
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>0.87503720959953335</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5807,13 +5807,13 @@
         <v>0</v>
       </c>
       <c r="AN28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO28" s="0">
         <v>0</v>
       </c>
       <c r="AP28" s="0">
-        <v>1</v>
+        <v>0.75184839117753111</v>
       </c>
       <c r="AQ28" s="0">
         <v>0</v>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="AU28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV28" s="0">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="AZ28" s="0">
-        <v>0</v>
+        <v>0.52098650397244883</v>
       </c>
       <c r="BA28" s="0">
         <v>0</v>
@@ -5917,16 +5917,16 @@
         <v>0</v>
       </c>
       <c r="H29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="0">
         <v>0</v>
       </c>
       <c r="K29" s="0">
-        <v>0</v>
+        <v>0.73974702980554929</v>
       </c>
       <c r="L29" s="0">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="0">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="AR29" s="0">
-        <v>0</v>
+        <v>0.79458756551137411</v>
       </c>
       <c r="AS29" s="0">
         <v>0</v>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="BH29" s="0">
-        <v>0</v>
+        <v>0.92146487354609741</v>
       </c>
       <c r="BI29" s="0">
         <v>0</v>
@@ -6102,10 +6102,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="0">
-        <v>0</v>
+        <v>0.5460090797513697</v>
       </c>
       <c r="C30" s="0">
         <v>0</v>
@@ -6126,13 +6126,13 @@
         <v>0</v>
       </c>
       <c r="I30" s="0">
-        <v>0</v>
+        <v>0.59948090223946127</v>
       </c>
       <c r="J30" s="0">
         <v>0</v>
       </c>
       <c r="K30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="0">
         <v>0</v>
@@ -6168,13 +6168,13 @@
         <v>0</v>
       </c>
       <c r="W30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="0">
-        <v>0</v>
+        <v>0.73896176469632113</v>
       </c>
       <c r="Y30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6222,16 +6222,16 @@
         <v>0</v>
       </c>
       <c r="AO30" s="0">
-        <v>0</v>
+        <v>0.78509165325295704</v>
       </c>
       <c r="AP30" s="0">
         <v>0</v>
       </c>
       <c r="AQ30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR30" s="0">
-        <v>0</v>
+        <v>0.96273902513736087</v>
       </c>
       <c r="AS30" s="0">
         <v>0</v>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="BF30" s="0">
-        <v>0</v>
+        <v>0.98131919256801758</v>
       </c>
       <c r="BG30" s="0">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="0">
-        <v>0</v>
+        <v>0.8969028492013994</v>
       </c>
       <c r="U31" s="0">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0</v>
+        <v>0.90600136591749347</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="0">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="AU31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV31" s="0">
         <v>0</v>
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="BB31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC31" s="0">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="BL31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM31" s="0">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="0">
-        <v>0</v>
+        <v>0.59405033420214959</v>
       </c>
       <c r="G32" s="0">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="0">
-        <v>0</v>
+        <v>0.88631403877037973</v>
       </c>
       <c r="K32" s="0">
         <v>0</v>
@@ -6604,16 +6604,16 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>0</v>
+        <v>0.76872099907003966</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="AO32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP32" s="0">
         <v>0</v>
@@ -6691,13 +6691,13 @@
         <v>0</v>
       </c>
       <c r="BH32" s="0">
-        <v>0</v>
+        <v>0.6910321607565757</v>
       </c>
       <c r="BI32" s="0">
         <v>0</v>
       </c>
       <c r="BJ32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK32" s="0">
         <v>0</v>
@@ -6738,10 +6738,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="0">
-        <v>0</v>
+        <v>0.95375649082006231</v>
       </c>
       <c r="I33" s="0">
         <v>0</v>
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="0">
-        <v>0</v>
+        <v>0.58710777221344224</v>
       </c>
       <c r="N33" s="0">
         <v>0</v>
@@ -6771,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="R33" s="0">
-        <v>0</v>
+        <v>0.58204686380542259</v>
       </c>
       <c r="S33" s="0">
         <v>0</v>
       </c>
       <c r="T33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="0">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="AU33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV33" s="0">
         <v>0</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="BC33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD33" s="0">
         <v>0</v>
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="BH33" s="0">
-        <v>0</v>
+        <v>0.61449155409050604</v>
       </c>
       <c r="BI33" s="0">
         <v>0</v>
@@ -6968,13 +6968,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="0">
-        <v>0</v>
+        <v>0.77765505286919889</v>
       </c>
       <c r="P34" s="0">
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>0</v>
+        <v>0.54515762385650102</v>
       </c>
       <c r="R34" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.88464938709516616</v>
       </c>
       <c r="AJ34" s="0">
         <v>0</v>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="AU34" s="0">
-        <v>0</v>
+        <v>0.55341742088797108</v>
       </c>
       <c r="AV34" s="0">
         <v>0</v>
@@ -7079,13 +7079,13 @@
         <v>0</v>
       </c>
       <c r="AZ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA34" s="0">
         <v>0</v>
       </c>
       <c r="BB34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC34" s="0">
         <v>0</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="BG34" s="0">
-        <v>0</v>
+        <v>0.7056495372150311</v>
       </c>
       <c r="BH34" s="0">
         <v>0</v>
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="0">
         <v>0</v>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="0">
         <v>0</v>
@@ -7231,16 +7231,16 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.67761754348411785</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>0</v>
+        <v>0.64497542104969685</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="AY35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ35" s="0">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="BC35" s="0">
-        <v>0</v>
+        <v>0.82631556512283399</v>
       </c>
       <c r="BD35" s="0">
         <v>0</v>
@@ -7356,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="0">
-        <v>0</v>
+        <v>0.8548576053872996</v>
       </c>
       <c r="H36" s="0">
         <v>0</v>
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="0">
         <v>0</v>
@@ -7407,13 +7407,13 @@
         <v>0</v>
       </c>
       <c r="X36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="0">
         <v>0</v>
       </c>
       <c r="Z36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="0">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.76628318684451879</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="BP36" s="0">
-        <v>0</v>
+        <v>0.57512421637492495</v>
       </c>
     </row>
     <row r="37">
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="0">
         <v>0</v>
@@ -7634,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="AE37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0</v>
+        <v>0.72228005828806463</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="AU37" s="0">
-        <v>0</v>
+        <v>0.95811965314830294</v>
       </c>
       <c r="AV37" s="0">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="BK37" s="0">
-        <v>0</v>
+        <v>0.91810027656034721</v>
       </c>
       <c r="BL37" s="0">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="BP37" s="0">
-        <v>0</v>
+        <v>0.55567596130570762</v>
       </c>
     </row>
     <row r="38">
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="0">
-        <v>0</v>
+        <v>0.7892854606348414</v>
       </c>
       <c r="C38" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.63865546434223375</v>
       </c>
       <c r="AK38" s="0">
         <v>0</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR38" s="0">
         <v>0</v>
@@ -7915,13 +7915,13 @@
         <v>0</v>
       </c>
       <c r="BD38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE38" s="0">
-        <v>0</v>
+        <v>0.67314660260907166</v>
       </c>
       <c r="BF38" s="0">
-        <v>1</v>
+        <v>0.57750872320212965</v>
       </c>
       <c r="BG38" s="0">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="BP38" s="0">
-        <v>0</v>
+        <v>0.58042667229973599</v>
       </c>
     </row>
     <row r="39">
@@ -7959,13 +7959,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="0">
         <v>0</v>
       </c>
       <c r="D39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="0">
         <v>0</v>
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="0">
         <v>0</v>
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="0">
-        <v>0</v>
+        <v>0.50726005271225216</v>
       </c>
       <c r="AR39" s="0">
         <v>0</v>
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="0">
-        <v>0</v>
+        <v>0.9299240804615404</v>
       </c>
       <c r="BB39" s="0">
         <v>0</v>
@@ -8162,13 +8162,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0</v>
+        <v>0.81853653715329111</v>
       </c>
       <c r="B40" s="0">
         <v>0</v>
       </c>
       <c r="C40" s="0">
-        <v>0</v>
+        <v>0.67882703917058218</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="0">
         <v>0</v>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="0">
         <v>0</v>
@@ -8282,16 +8282,16 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
       </c>
       <c r="AR40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS40" s="0">
         <v>0</v>
@@ -8336,13 +8336,13 @@
         <v>0</v>
       </c>
       <c r="BG40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH40" s="0">
         <v>0</v>
       </c>
       <c r="BI40" s="0">
-        <v>0</v>
+        <v>0.82861537907834215</v>
       </c>
       <c r="BJ40" s="0">
         <v>0</v>
@@ -8386,16 +8386,16 @@
         <v>0</v>
       </c>
       <c r="G41" s="0">
-        <v>0</v>
+        <v>0.98885093796562251</v>
       </c>
       <c r="H41" s="0">
         <v>0</v>
       </c>
       <c r="I41" s="0">
-        <v>0</v>
+        <v>0.86626409877959176</v>
       </c>
       <c r="J41" s="0">
-        <v>0</v>
+        <v>0.64283083669088292</v>
       </c>
       <c r="K41" s="0">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
@@ -8437,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="0">
-        <v>0</v>
+        <v>0.99324639509202073</v>
       </c>
       <c r="Y41" s="0">
         <v>0</v>
@@ -8455,13 +8455,13 @@
         <v>0</v>
       </c>
       <c r="AD41" s="0">
-        <v>0</v>
+        <v>0.72282732781491532</v>
       </c>
       <c r="AE41" s="0">
         <v>0</v>
       </c>
       <c r="AF41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="0">
         <v>0</v>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="BE41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF41" s="0">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="0">
         <v>0</v>
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="0">
         <v>0</v>
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="0">
-        <v>1</v>
+        <v>0.53760443434779215</v>
       </c>
       <c r="AC42" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8703,13 +8703,13 @@
         <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>0</v>
+        <v>0.64530449860681649</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
       </c>
       <c r="AT42" s="0">
-        <v>0</v>
+        <v>0.88424985061747496</v>
       </c>
       <c r="AU42" s="0">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="AZ42" s="0">
-        <v>0</v>
+        <v>0.69997983546544296</v>
       </c>
       <c r="BA42" s="0">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="BG42" s="0">
-        <v>0</v>
+        <v>0.89938087861165228</v>
       </c>
       <c r="BH42" s="0">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="0">
-        <v>0</v>
+        <v>0.50357721724962912</v>
       </c>
       <c r="K43" s="0">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" s="0">
         <v>0</v>
@@ -8852,13 +8852,13 @@
         <v>0</v>
       </c>
       <c r="Y43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="0">
         <v>0</v>
       </c>
       <c r="AA43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="0">
         <v>0</v>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="AD43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="0">
         <v>0</v>
@@ -8891,10 +8891,10 @@
         <v>0</v>
       </c>
       <c r="AL43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="0">
-        <v>0</v>
+        <v>0.91226631968519922</v>
       </c>
       <c r="AN43" s="0">
         <v>0</v>
@@ -8909,13 +8909,13 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0</v>
+        <v>0.71207377335452593</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
       </c>
       <c r="AT43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU43" s="0">
         <v>0</v>
@@ -8972,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="BM43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN43" s="0">
         <v>0</v>
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="Z44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="0">
         <v>0</v>
@@ -9070,10 +9070,10 @@
         <v>0</v>
       </c>
       <c r="AC44" s="0">
-        <v>0</v>
+        <v>0.61074384106318813</v>
       </c>
       <c r="AD44" s="0">
-        <v>0</v>
+        <v>0.78473099531250523</v>
       </c>
       <c r="AE44" s="0">
         <v>0</v>
@@ -9103,16 +9103,16 @@
         <v>0</v>
       </c>
       <c r="AN44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO44" s="0">
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0</v>
+        <v>0.59872427731930611</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0</v>
+        <v>0.83309068545579268</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="BA44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB44" s="0">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="BL44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM44" s="0">
         <v>0</v>
@@ -9192,7 +9192,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" s="0">
         <v>0</v>
@@ -9201,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="0">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" s="0">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="0">
-        <v>0</v>
+        <v>0.50781038170937853</v>
       </c>
       <c r="X45" s="0">
         <v>0</v>
@@ -9348,10 +9348,10 @@
         <v>0</v>
       </c>
       <c r="BA45" s="0">
-        <v>0</v>
+        <v>0.57612594571069242</v>
       </c>
       <c r="BB45" s="0">
-        <v>1</v>
+        <v>0.69111134096091831</v>
       </c>
       <c r="BC45" s="0">
         <v>0</v>
@@ -9387,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="BN45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO45" s="0">
         <v>0</v>
@@ -9521,10 +9521,10 @@
         <v>0</v>
       </c>
       <c r="AP46" s="0">
-        <v>0</v>
+        <v>0.95765584185953267</v>
       </c>
       <c r="AQ46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR46" s="0">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="AZ46" s="0">
-        <v>0</v>
+        <v>0.70962418831713003</v>
       </c>
       <c r="BA46" s="0">
         <v>0</v>
@@ -9587,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="BL46" s="0">
-        <v>0</v>
+        <v>0.90145439167467722</v>
       </c>
       <c r="BM46" s="0">
         <v>0</v>
@@ -9596,10 +9596,10 @@
         <v>0</v>
       </c>
       <c r="BO46" s="0">
-        <v>0</v>
+        <v>0.82747518917787533</v>
       </c>
       <c r="BP46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -9613,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="0">
         <v>0</v>
@@ -9670,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="0">
-        <v>0</v>
+        <v>0.97778533225775632</v>
       </c>
       <c r="X47" s="0">
         <v>0</v>
@@ -9685,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="0">
         <v>0</v>
@@ -9694,16 +9694,16 @@
         <v>0</v>
       </c>
       <c r="AE47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF47" s="0">
         <v>0</v>
       </c>
       <c r="AG47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH47" s="0">
-        <v>0</v>
+        <v>0.69337906408763184</v>
       </c>
       <c r="AI47" s="0">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="0">
-        <v>0</v>
+        <v>0.9750061174573128</v>
       </c>
       <c r="AL47" s="0">
         <v>0</v>
@@ -9745,10 +9745,10 @@
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.92182842838517631</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9769,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="BD47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE47" s="0">
         <v>0</v>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="BK47" s="0">
-        <v>0</v>
+        <v>0.97547184182106683</v>
       </c>
       <c r="BL47" s="0">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="0">
-        <v>0</v>
+        <v>0.80438574773407656</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -9828,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="0">
-        <v>0</v>
+        <v>0.93821568609995976</v>
       </c>
       <c r="H48" s="0">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" s="0">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="BA48" s="0">
-        <v>0</v>
+        <v>0.73174725011669595</v>
       </c>
       <c r="BB48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC48" s="0">
         <v>0</v>
@@ -10016,7 +10016,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0</v>
+        <v>0.98415459871931021</v>
       </c>
       <c r="B49" s="0">
         <v>0</v>
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="0">
-        <v>0</v>
+        <v>0.85751345853561056</v>
       </c>
       <c r="F49" s="0">
         <v>0</v>
@@ -10049,13 +10049,13 @@
         <v>0</v>
       </c>
       <c r="L49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" s="0">
         <v>0</v>
       </c>
       <c r="N49" s="0">
-        <v>0</v>
+        <v>0.98574159410724804</v>
       </c>
       <c r="O49" s="0">
         <v>0</v>
@@ -10088,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.67017321545932007</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10196,10 +10196,10 @@
         <v>0</v>
       </c>
       <c r="BI49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ49" s="0">
-        <v>0</v>
+        <v>0.59163791796895149</v>
       </c>
       <c r="BK49" s="0">
         <v>0</v>
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="0">
         <v>0</v>
@@ -10282,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="0">
-        <v>0</v>
+        <v>0.92525713286973565</v>
       </c>
       <c r="V50" s="0">
-        <v>0</v>
+        <v>0.77518701855719896</v>
       </c>
       <c r="W50" s="0">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="BI50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ50" s="0">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="0">
         <v>0</v>
@@ -10473,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="0">
         <v>0</v>
@@ -10488,7 +10488,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" s="0">
         <v>0</v>
@@ -10530,7 +10530,7 @@
         <v>0</v>
       </c>
       <c r="AI51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ51" s="0">
         <v>0</v>
@@ -10575,16 +10575,16 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0</v>
+        <v>0.72759872879416143</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10599,13 +10599,13 @@
         <v>0</v>
       </c>
       <c r="BF51" s="0">
-        <v>0</v>
+        <v>0.52200917353225185</v>
       </c>
       <c r="BG51" s="0">
         <v>0</v>
       </c>
       <c r="BH51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI51" s="0">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="0">
-        <v>0</v>
+        <v>0.60660899351899611</v>
       </c>
       <c r="AC52" s="0">
         <v>0</v>
@@ -10733,7 +10733,7 @@
         <v>0</v>
       </c>
       <c r="AH52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI52" s="0">
         <v>0</v>
@@ -10757,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="0">
-        <v>0</v>
+        <v>0.706846236567783</v>
       </c>
       <c r="AQ52" s="0">
         <v>0</v>
@@ -10769,7 +10769,7 @@
         <v>0</v>
       </c>
       <c r="AT52" s="0">
-        <v>0</v>
+        <v>0.87963252685197635</v>
       </c>
       <c r="AU52" s="0">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0</v>
+        <v>0.88917767511714718</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10823,10 +10823,10 @@
         <v>0</v>
       </c>
       <c r="BL52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM52" s="0">
-        <v>0</v>
+        <v>0.50878929631221026</v>
       </c>
       <c r="BN52" s="0">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" s="0">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="0">
-        <v>0</v>
+        <v>0.74754205231414395</v>
       </c>
       <c r="AN53" s="0">
         <v>0</v>
@@ -10969,10 +10969,10 @@
         <v>0</v>
       </c>
       <c r="AR53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS53" s="0">
-        <v>0</v>
+        <v>0.69192825369934119</v>
       </c>
       <c r="AT53" s="0">
         <v>0</v>
@@ -10981,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="AV53" s="0">
-        <v>0</v>
+        <v>0.92389137793984932</v>
       </c>
       <c r="AW53" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="BC53" s="0">
-        <v>0</v>
+        <v>0.68086684511291606</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="BH53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI53" s="0">
         <v>0</v>
@@ -11026,13 +11026,13 @@
         <v>0</v>
       </c>
       <c r="BK53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL53" s="0">
         <v>0</v>
       </c>
       <c r="BM53" s="0">
-        <v>0</v>
+        <v>0.882864324082</v>
       </c>
       <c r="BN53" s="0">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="AE54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="0">
         <v>0</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="AH54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="0">
         <v>0</v>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="0">
-        <v>1</v>
+        <v>0.74468995047176012</v>
       </c>
       <c r="AT54" s="0">
         <v>0</v>
@@ -11187,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="AV54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW54" s="0">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
         <v>0</v>
@@ -11226,13 +11226,13 @@
         <v>0</v>
       </c>
       <c r="BI54" s="0">
-        <v>0</v>
+        <v>0.86656210227339869</v>
       </c>
       <c r="BJ54" s="0">
         <v>0</v>
       </c>
       <c r="BK54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL54" s="0">
         <v>0</v>
@@ -11241,7 +11241,7 @@
         <v>0</v>
       </c>
       <c r="BN54" s="0">
-        <v>0</v>
+        <v>0.66182152180515796</v>
       </c>
       <c r="BO54" s="0">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="0">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="0">
-        <v>0</v>
+        <v>0.60571542561224501</v>
       </c>
       <c r="V55" s="0">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="0">
         <v>0</v>
@@ -11348,13 +11348,13 @@
         <v>0</v>
       </c>
       <c r="AG55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH55" s="0">
         <v>0</v>
       </c>
       <c r="AI55" s="0">
-        <v>0</v>
+        <v>0.69880225725690726</v>
       </c>
       <c r="AJ55" s="0">
         <v>0</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0</v>
+        <v>0.89737708558275597</v>
       </c>
       <c r="BB55" s="0">
         <v>0</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="0">
-        <v>0</v>
+        <v>0.61567563810087267</v>
       </c>
       <c r="G56" s="0">
         <v>0</v>
@@ -11506,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>0</v>
+        <v>0.7055829203323899</v>
       </c>
       <c r="R56" s="0">
         <v>0</v>
@@ -11533,10 +11533,10 @@
         <v>0</v>
       </c>
       <c r="Z56" s="0">
-        <v>0</v>
+        <v>0.81230228397516413</v>
       </c>
       <c r="AA56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB56" s="0">
         <v>0</v>
@@ -11569,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="AL56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="0">
         <v>0</v>
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="AU56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV56" s="0">
         <v>0</v>
@@ -11682,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="0">
-        <v>0</v>
+        <v>0.64458438624029846</v>
       </c>
       <c r="H57" s="0">
         <v>0</v>
@@ -11706,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" s="0">
         <v>0</v>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="AL57" s="0">
-        <v>0</v>
+        <v>0.52485716879135014</v>
       </c>
       <c r="AM57" s="0">
         <v>0</v>
@@ -11784,7 +11784,7 @@
         <v>0</v>
       </c>
       <c r="AO57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP57" s="0">
         <v>0</v>
@@ -11859,13 +11859,13 @@
         <v>0</v>
       </c>
       <c r="BN57" s="0">
-        <v>0</v>
+        <v>0.99850804854251396</v>
       </c>
       <c r="BO57" s="0">
-        <v>0</v>
+        <v>0.77206603345776492</v>
       </c>
       <c r="BP57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -11876,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="0">
         <v>0</v>
@@ -11888,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="0">
-        <v>0</v>
+        <v>0.7521630347596826</v>
       </c>
       <c r="H58" s="0">
         <v>0</v>
@@ -11918,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="0">
         <v>0</v>
@@ -11957,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="AD58" s="0">
-        <v>0</v>
+        <v>0.7630571701429516</v>
       </c>
       <c r="AE58" s="0">
         <v>0</v>
@@ -11981,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="AL58" s="0">
-        <v>1</v>
+        <v>0.75160396495374415</v>
       </c>
       <c r="AM58" s="0">
         <v>0</v>
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="AY58" s="0">
-        <v>0</v>
+        <v>0.57969283740644395</v>
       </c>
       <c r="AZ58" s="0">
         <v>0</v>
@@ -12062,7 +12062,7 @@
         <v>0</v>
       </c>
       <c r="BM58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN58" s="0">
         <v>0</v>
@@ -12124,10 +12124,10 @@
         <v>0</v>
       </c>
       <c r="Q59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" s="0">
-        <v>0</v>
+        <v>0.78298824860910299</v>
       </c>
       <c r="S59" s="0">
         <v>0</v>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="AH59" s="0">
-        <v>0</v>
+        <v>0.7585611763813398</v>
       </c>
       <c r="AI59" s="0">
         <v>0</v>
@@ -12193,13 +12193,13 @@
         <v>0</v>
       </c>
       <c r="AN59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO59" s="0">
         <v>0</v>
       </c>
       <c r="AP59" s="0">
-        <v>0</v>
+        <v>0.6142505366630262</v>
       </c>
       <c r="AQ59" s="0">
         <v>0</v>
@@ -12288,10 +12288,10 @@
         <v>0</v>
       </c>
       <c r="C60" s="0">
-        <v>0</v>
+        <v>0.83153202074567711</v>
       </c>
       <c r="D60" s="0">
-        <v>0</v>
+        <v>0.70598460776351513</v>
       </c>
       <c r="E60" s="0">
         <v>0</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="0">
-        <v>0</v>
+        <v>0.60510702644179126</v>
       </c>
       <c r="U60" s="0">
         <v>0</v>
@@ -12357,7 +12357,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="0">
-        <v>0</v>
+        <v>0.9184152565874566</v>
       </c>
       <c r="AA60" s="0">
         <v>0</v>
@@ -12366,7 +12366,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="0">
-        <v>0</v>
+        <v>0.98033916927063425</v>
       </c>
       <c r="AD60" s="0">
         <v>0</v>
@@ -12375,10 +12375,10 @@
         <v>0</v>
       </c>
       <c r="AF60" s="0">
-        <v>0</v>
+        <v>0.97807449514275291</v>
       </c>
       <c r="AG60" s="0">
-        <v>0</v>
+        <v>0.65774047806490887</v>
       </c>
       <c r="AH60" s="0">
         <v>0</v>
@@ -12432,13 +12432,13 @@
         <v>0</v>
       </c>
       <c r="AY60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ60" s="0">
         <v>0</v>
       </c>
       <c r="BA60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB60" s="0">
         <v>0</v>
@@ -12548,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="0">
-        <v>0</v>
+        <v>0.77179859572758003</v>
       </c>
       <c r="V61" s="0">
         <v>0</v>
@@ -12560,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="0">
         <v>0</v>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="AN61" s="0">
-        <v>0</v>
+        <v>0.63975045339157022</v>
       </c>
       <c r="AO61" s="0">
         <v>0</v>
@@ -12632,10 +12632,10 @@
         <v>0</v>
       </c>
       <c r="AW61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY61" s="0">
         <v>0</v>
@@ -12647,7 +12647,7 @@
         <v>0</v>
       </c>
       <c r="BB61" s="0">
-        <v>0</v>
+        <v>0.76172683784834538</v>
       </c>
       <c r="BC61" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.92973249849294948</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12709,7 +12709,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="0">
         <v>0</v>
@@ -12727,7 +12727,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" s="0">
         <v>0</v>
@@ -12787,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="AF62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG62" s="0">
         <v>0</v>
@@ -12838,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="AW62" s="0">
-        <v>0</v>
+        <v>0.9180578086658604</v>
       </c>
       <c r="AX62" s="0">
         <v>0</v>
@@ -12874,13 +12874,13 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.63688465810333295</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.58439812623425336</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12903,7 +12903,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="0">
-        <v>0</v>
+        <v>0.58860912286450096</v>
       </c>
       <c r="C63" s="0">
         <v>0</v>
@@ -12936,13 +12936,13 @@
         <v>0</v>
       </c>
       <c r="M63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" s="0">
         <v>0</v>
       </c>
       <c r="O63" s="0">
-        <v>0</v>
+        <v>0.77097965281424075</v>
       </c>
       <c r="P63" s="0">
         <v>0</v>
@@ -12972,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z63" s="0">
         <v>0</v>
@@ -13008,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="0">
-        <v>0</v>
+        <v>0.58659683792492046</v>
       </c>
       <c r="AL63" s="0">
         <v>0</v>
@@ -13038,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="AU63" s="0">
-        <v>0</v>
+        <v>0.62824088778492371</v>
       </c>
       <c r="AV63" s="0">
         <v>0</v>
@@ -13056,10 +13056,10 @@
         <v>0</v>
       </c>
       <c r="BA63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC63" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.77075295597894078</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13112,13 +13112,13 @@
         <v>0</v>
       </c>
       <c r="C64" s="0">
-        <v>0</v>
+        <v>0.95145153373640112</v>
       </c>
       <c r="D64" s="0">
         <v>0</v>
       </c>
       <c r="E64" s="0">
-        <v>0</v>
+        <v>0.89651266952284736</v>
       </c>
       <c r="F64" s="0">
         <v>0</v>
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64" s="0">
         <v>0</v>
@@ -13196,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="AE64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="0">
         <v>0</v>
@@ -13235,13 +13235,13 @@
         <v>0</v>
       </c>
       <c r="AR64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS64" s="0">
         <v>0</v>
       </c>
       <c r="AT64" s="0">
-        <v>0</v>
+        <v>0.68920300316675243</v>
       </c>
       <c r="AU64" s="0">
         <v>0</v>
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="AZ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA64" s="0">
         <v>0</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="0">
-        <v>0</v>
+        <v>0.60383626082047892</v>
       </c>
       <c r="L65" s="0">
         <v>0</v>
@@ -13375,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="V65" s="0">
-        <v>0</v>
+        <v>0.82839674938669583</v>
       </c>
       <c r="W65" s="0">
         <v>0</v>
@@ -13438,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR65" s="0">
         <v>0</v>
@@ -13465,10 +13465,10 @@
         <v>0</v>
       </c>
       <c r="AZ65" s="0">
-        <v>0</v>
+        <v>0.69785637809723577</v>
       </c>
       <c r="BA65" s="0">
-        <v>0</v>
+        <v>0.6306646821723032</v>
       </c>
       <c r="BB65" s="0">
         <v>0</v>
@@ -13483,7 +13483,7 @@
         <v>0</v>
       </c>
       <c r="BF65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG65" s="0">
         <v>0</v>
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="0">
         <v>0</v>
@@ -13590,13 +13590,13 @@
         <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>0</v>
+        <v>0.87064683267847298</v>
       </c>
       <c r="Z66" s="0">
         <v>0</v>
       </c>
       <c r="AA66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB66" s="0">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="AS66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT66" s="0">
         <v>0</v>
@@ -13677,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="BB66" s="0">
-        <v>0</v>
+        <v>0.94605729318944165</v>
       </c>
       <c r="BC66" s="0">
         <v>0</v>
@@ -13686,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="BE66" s="0">
-        <v>0</v>
+        <v>0.61343324400380272</v>
       </c>
       <c r="BF66" s="0">
         <v>0</v>
@@ -13736,7 +13736,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="0">
         <v>0</v>
@@ -13754,7 +13754,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="0">
-        <v>0</v>
+        <v>0.94290284940867675</v>
       </c>
       <c r="L67" s="0">
         <v>0</v>
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="AT67" s="0">
-        <v>0</v>
+        <v>0.76728408318278696</v>
       </c>
       <c r="AU67" s="0">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="BE67" s="0">
-        <v>0</v>
+        <v>0.5637177570119114</v>
       </c>
       <c r="BF67" s="0">
         <v>0</v>
@@ -13925,12 +13925,12 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -13942,10 +13942,10 @@
         <v>0</v>
       </c>
       <c r="E68" s="0">
-        <v>0</v>
+        <v>0.91995614433504858</v>
       </c>
       <c r="F68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="0">
         <v>0</v>
@@ -13966,7 +13966,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" s="0">
         <v>0</v>
@@ -13990,13 +13990,13 @@
         <v>0</v>
       </c>
       <c r="U68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V68" s="0">
         <v>0</v>
       </c>
       <c r="W68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X68" s="0">
         <v>0</v>
@@ -14035,13 +14035,13 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="0">
-        <v>0</v>
+        <v>0.94033240228524861</v>
       </c>
       <c r="AK68" s="0">
-        <v>0</v>
+        <v>0.89998868464203508</v>
       </c>
       <c r="AL68" s="0">
-        <v>0</v>
+        <v>0.5709612993152926</v>
       </c>
       <c r="AM68" s="0">
         <v>0</v>
@@ -14065,7 +14065,7 @@
         <v>0</v>
       </c>
       <c r="AT68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU68" s="0">
         <v>0</v>
@@ -14098,7 +14098,7 @@
         <v>0</v>
       </c>
       <c r="BE68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject35.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject35.xlsx
@@ -67,11 +67,11 @@
     <col min="9" max="9" width="12.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.7109375" customWidth="true"/>
     <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
     <col min="13" max="13" width="12.7109375" customWidth="true"/>
     <col min="14" max="14" width="12.7109375" customWidth="true"/>
     <col min="15" max="15" width="12.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
     <col min="17" max="17" width="12.7109375" customWidth="true"/>
     <col min="18" max="18" width="12.7109375" customWidth="true"/>
     <col min="19" max="19" width="12.7109375" customWidth="true"/>
@@ -245,7 +245,7 @@
         <v>0</v>
       </c>
       <c r="AN1" s="0">
-        <v>0.68948936790214366</v>
+        <v>0.81853653715329111</v>
       </c>
       <c r="AO1" s="0">
         <v>0</v>
@@ -272,7 +272,7 @@
         <v>0</v>
       </c>
       <c r="AW1" s="0">
-        <v>0.64604668207217375</v>
+        <v>0.98415459871931021</v>
       </c>
       <c r="AX1" s="0">
         <v>0</v>
@@ -358,7 +358,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="0">
-        <v>0.65892720841075647</v>
+        <v>0.96356190245638607</v>
       </c>
       <c r="J2" s="0">
         <v>0</v>
@@ -367,7 +367,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="0">
-        <v>0.58141320882691705</v>
+        <v>0.79606282101327708</v>
       </c>
       <c r="M2" s="0">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="AN3" s="0">
-        <v>0.5439526072406331</v>
+        <v>0.67882703917058218</v>
       </c>
       <c r="AO3" s="0">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="BH3" s="0">
-        <v>0.7743242975235114</v>
+        <v>0.83153202074567711</v>
       </c>
       <c r="BI3" s="0">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="BL3" s="0">
-        <v>0.940125974148313</v>
+        <v>0.95145153373640112</v>
       </c>
       <c r="BM3" s="0">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="BH4" s="0">
-        <v>0.69290566164662293</v>
+        <v>0.70598460776351513</v>
       </c>
       <c r="BI4" s="0">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.70467007671096593</v>
+        <v>0.99968334510845669</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>0.83595753692729269</v>
+        <v>0.89426261388626993</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="AW5" s="0">
-        <v>0.72741663996191108</v>
+        <v>0.85751345853561056</v>
       </c>
       <c r="AX5" s="0">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="BL5" s="0">
-        <v>0.72023636813916925</v>
+        <v>0.89651266952284736</v>
       </c>
       <c r="BM5" s="0">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="0">
-        <v>0.58877676887492347</v>
+        <v>0.69023304643924432</v>
       </c>
       <c r="O6" s="0">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="0">
-        <v>0.51649131811495175</v>
+        <v>0.6924828255848603</v>
       </c>
       <c r="AC6" s="0">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="BD6" s="0">
-        <v>0.56798233298462542</v>
+        <v>0.61567563810087267</v>
       </c>
       <c r="BE6" s="0">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0.52752753484232107</v>
+        <v>0.60396962950220157</v>
       </c>
       <c r="D7" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.6137234311158114</v>
+        <v>0.73359504870179193</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="AO7" s="0">
-        <v>0.64204004890823407</v>
+        <v>0.98885093796562251</v>
       </c>
       <c r="AP7" s="0">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="AV7" s="0">
-        <v>0.63808308317327267</v>
+        <v>0.93821568609995976</v>
       </c>
       <c r="AW7" s="0">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0.69203475996501362</v>
       </c>
       <c r="BF7" s="0">
-        <v>0.59201574232861598</v>
+        <v>0.7521630347596826</v>
       </c>
       <c r="BG7" s="0">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="0">
-        <v>0.81997926131556953</v>
+        <v>0.93189145405603013</v>
       </c>
       <c r="X8" s="0">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="AG8" s="0">
-        <v>0.51082861024117721</v>
+        <v>0.95375649082006231</v>
       </c>
       <c r="AH8" s="0">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="AO9" s="0">
-        <v>0.7104056607044541</v>
+        <v>0.86626409877959176</v>
       </c>
       <c r="AP9" s="0">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="0">
-        <v>0.59753807423932859</v>
+        <v>0.65684634720302748</v>
       </c>
       <c r="V10" s="0">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="0">
-        <v>0.52885916362123531</v>
+        <v>0.88631403877037973</v>
       </c>
       <c r="AG10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.60778506029254276</v>
+        <v>0.9657028963804084</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="BO11" s="0">
-        <v>0.85465385888729073</v>
+        <v>0.94290284940867675</v>
       </c>
       <c r="BP11" s="0">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="0">
-        <v>0.78399147879162023</v>
+        <v>0.99483331603651237</v>
       </c>
       <c r="R12" s="0">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="0">
-        <v>0.53175149768379681</v>
+        <v>0.80513371023499691</v>
       </c>
       <c r="R14" s="0">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="AW14" s="0">
-        <v>0.60720041676750602</v>
+        <v>0.98574159410724804</v>
       </c>
       <c r="AX14" s="0">
         <v>0</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="0">
-        <v>0.64043798509021943</v>
+        <v>0.87914054540852749</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.8759784419592016</v>
+        <v>0.87921668665707187</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="0">
-        <v>0.75083087229342726</v>
+        <v>0.85504902102714619</v>
       </c>
       <c r="L16" s="0">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.51605105695940101</v>
+        <v>0.69495220866761243</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.91748532291787854</v>
+        <v>0.96187811998102468</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="BG18" s="0">
-        <v>0.71159449793089768</v>
+        <v>0.78298824860910299</v>
       </c>
       <c r="BH18" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0.75117849272512127</v>
+        <v>0.83380268156851889</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0.58284499737668116</v>
+        <v>0.81550733653107987</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="0">
-        <v>0.50128353832498118</v>
+        <v>0.86499840538991823</v>
       </c>
       <c r="Y20" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0.99679695095948717</v>
       </c>
       <c r="W21" s="0">
-        <v>0.5947168142557423</v>
+        <v>0.90483834457349355</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AX21" s="0">
-        <v>0.88922486350212193</v>
+        <v>0.92525713286973565</v>
       </c>
       <c r="AY21" s="0">
         <v>0</v>
@@ -4508,19 +4508,19 @@
         <v>0</v>
       </c>
       <c r="S22" s="0">
-        <v>0.65322976167291524</v>
+        <v>0.83729961157887434</v>
       </c>
       <c r="T22" s="0">
-        <v>0.6395208181375075</v>
+        <v>0.93787341877600627</v>
       </c>
       <c r="U22" s="0">
-        <v>0.71780273855186416</v>
+        <v>0.99679695095948717</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.74756728796555483</v>
+        <v>0.93399920526337121</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="0">
-        <v>0.63711115794387296</v>
+        <v>0.77518701855719896</v>
       </c>
       <c r="AY22" s="0">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="AU23" s="0">
-        <v>0.58612124357774509</v>
+        <v>0.97778533225775632</v>
       </c>
       <c r="AV23" s="0">
         <v>0</v>
@@ -4932,13 +4932,13 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>0.77812184046789024</v>
+        <v>0.96770355764718841</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.55142490301621683</v>
+        <v>0.6651546977563394</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="AO24" s="0">
-        <v>0.69666682899452648</v>
+        <v>0.99324639509202073</v>
       </c>
       <c r="AP24" s="0">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="0">
-        <v>0.6841135681979541</v>
+        <v>0.85626572366756415</v>
       </c>
       <c r="G25" s="0">
         <v>0</v>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="AB25" s="0">
-        <v>0.75589522911800722</v>
+        <v>0.8829747584210399</v>
       </c>
       <c r="AC25" s="0">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>0.76624041249755703</v>
+        <v>0.87064683267847298</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.58941977280178448</v>
+        <v>0.9021129836875792</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="BH26" s="0">
-        <v>0.8922634489779685</v>
+        <v>0.9184152565874566</v>
       </c>
       <c r="BI26" s="0">
         <v>0</v>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="0">
-        <v>0.76737488016416844</v>
+        <v>0.97102022645486441</v>
       </c>
       <c r="C27" s="0">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.52005540350765789</v>
+        <v>0.87503720959953335</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="0">
-        <v>0.98182022502988131</v>
+        <v>0.99675217194854171</v>
       </c>
       <c r="T28" s="0">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="AZ28" s="0">
-        <v>0.52098650397244883</v>
+        <v>0.60660899351899611</v>
       </c>
       <c r="BA28" s="0">
         <v>0</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="0">
-        <v>0.73974702980554929</v>
+        <v>0.88052299056447336</v>
       </c>
       <c r="L29" s="0">
         <v>0</v>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="BH29" s="0">
-        <v>0.92146487354609741</v>
+        <v>0.98033916927063425</v>
       </c>
       <c r="BI29" s="0">
         <v>0</v>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="0">
-        <v>0.5460090797513697</v>
+        <v>0.98250211512961483</v>
       </c>
       <c r="C30" s="0">
         <v>0</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="0">
-        <v>0.59948090223946127</v>
+        <v>0.69819336875736504</v>
       </c>
       <c r="J30" s="0">
         <v>0</v>
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="0">
-        <v>0.73896176469632113</v>
+        <v>0.8407202983599924</v>
       </c>
       <c r="Y30" s="0">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="0">
-        <v>0.8969028492013994</v>
+        <v>0.95180050287384343</v>
       </c>
       <c r="U31" s="0">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="0">
-        <v>0.59405033420214959</v>
+        <v>0.76584547244326884</v>
       </c>
       <c r="G32" s="0">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.76872099907003966</v>
+        <v>0.90600136591749347</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="BH32" s="0">
-        <v>0.6910321607565757</v>
+        <v>0.97807449514275291</v>
       </c>
       <c r="BI32" s="0">
         <v>0</v>
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="0">
-        <v>0.58710777221344224</v>
+        <v>0.5966393349801089</v>
       </c>
       <c r="N33" s="0">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="0">
-        <v>0.58204686380542259</v>
+        <v>0.59532634769114967</v>
       </c>
       <c r="S33" s="0">
         <v>0</v>
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="BH33" s="0">
-        <v>0.61449155409050604</v>
+        <v>0.65774047806490887</v>
       </c>
       <c r="BI33" s="0">
         <v>0</v>
@@ -6968,13 +6968,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="0">
-        <v>0.77765505286919889</v>
+        <v>0.98732828631048919</v>
       </c>
       <c r="P34" s="0">
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>0.54515762385650102</v>
+        <v>0.72391854558777946</v>
       </c>
       <c r="R34" s="0">
         <v>0</v>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="AU34" s="0">
-        <v>0.55341742088797108</v>
+        <v>0.69337906408763184</v>
       </c>
       <c r="AV34" s="0">
         <v>0</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="BG34" s="0">
-        <v>0.7056495372150311</v>
+        <v>0.7585611763813398</v>
       </c>
       <c r="BH34" s="0">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.67761754348411785</v>
+        <v>0.88464938709516616</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.64497542104969685</v>
+        <v>0.72228005828806463</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7356,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="0">
-        <v>0.8548576053872996</v>
+        <v>0.99190243936976752</v>
       </c>
       <c r="H36" s="0">
         <v>0</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="BP36" s="0">
-        <v>0.57512421637492495</v>
+        <v>0.94033240228524861</v>
       </c>
     </row>
     <row r="37">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="AU37" s="0">
-        <v>0.95811965314830294</v>
+        <v>0.9750061174573128</v>
       </c>
       <c r="AV37" s="0">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="BP37" s="0">
-        <v>0.55567596130570762</v>
+        <v>0.89998868464203508</v>
       </c>
     </row>
     <row r="38">
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="0">
-        <v>0.7892854606348414</v>
+        <v>0.83481665652698922</v>
       </c>
       <c r="C38" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.63865546434223375</v>
+        <v>0.76628318684451879</v>
       </c>
       <c r="AK38" s="0">
         <v>0</v>
@@ -7921,7 +7921,7 @@
         <v>0.67314660260907166</v>
       </c>
       <c r="BF38" s="0">
-        <v>0.57750872320212965</v>
+        <v>0.75160396495374415</v>
       </c>
       <c r="BG38" s="0">
         <v>0</v>
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="0">
-        <v>0.50726005271225216</v>
+        <v>0.91226631968519922</v>
       </c>
       <c r="AR39" s="0">
         <v>0</v>
@@ -8395,7 +8395,7 @@
         <v>0.86626409877959176</v>
       </c>
       <c r="J41" s="0">
-        <v>0.64283083669088292</v>
+        <v>0.67441895614693093</v>
       </c>
       <c r="K41" s="0">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="AD41" s="0">
-        <v>0.72282732781491532</v>
+        <v>0.78509165325295704</v>
       </c>
       <c r="AE41" s="0">
         <v>0</v>
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="0">
-        <v>0.53760443434779215</v>
+        <v>0.75184839117753111</v>
       </c>
       <c r="AC42" s="0">
         <v>0</v>
@@ -8709,7 +8709,7 @@
         <v>0</v>
       </c>
       <c r="AT42" s="0">
-        <v>0.88424985061747496</v>
+        <v>0.95765584185953267</v>
       </c>
       <c r="AU42" s="0">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="AZ42" s="0">
-        <v>0.69997983546544296</v>
+        <v>0.706846236567783</v>
       </c>
       <c r="BA42" s="0">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="0">
-        <v>0.50357721724962912</v>
+        <v>0.95824014750046704</v>
       </c>
       <c r="K43" s="0">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.71207377335452593</v>
+        <v>0.83309068545579268</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -9070,10 +9070,10 @@
         <v>0</v>
       </c>
       <c r="AC44" s="0">
-        <v>0.61074384106318813</v>
+        <v>0.79458756551137411</v>
       </c>
       <c r="AD44" s="0">
-        <v>0.78473099531250523</v>
+        <v>0.96273902513736087</v>
       </c>
       <c r="AE44" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.59872427731930611</v>
+        <v>0.64530449860681649</v>
       </c>
       <c r="AQ44" s="0">
         <v>0.83309068545579268</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="0">
-        <v>0.50781038170937853</v>
+        <v>0.68248932884269187</v>
       </c>
       <c r="X45" s="0">
         <v>0</v>
@@ -9348,10 +9348,10 @@
         <v>0</v>
       </c>
       <c r="BA45" s="0">
-        <v>0.57612594571069242</v>
+        <v>0.69192825369934119</v>
       </c>
       <c r="BB45" s="0">
-        <v>0.69111134096091831</v>
+        <v>0.74468995047176012</v>
       </c>
       <c r="BC45" s="0">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="AZ46" s="0">
-        <v>0.70962418831713003</v>
+        <v>0.87963252685197635</v>
       </c>
       <c r="BA46" s="0">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="0">
-        <v>0.80438574773407656</v>
+        <v>0.85422382291063004</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="BA48" s="0">
-        <v>0.73174725011669595</v>
+        <v>0.92389137793984932</v>
       </c>
       <c r="BB48" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.67017321545932007</v>
+        <v>0.92182842838517631</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="BJ49" s="0">
-        <v>0.59163791796895149</v>
+        <v>0.9180578086658604</v>
       </c>
       <c r="BK49" s="0">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0.72759872879416143</v>
+        <v>0.88917767511714718</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="BF51" s="0">
-        <v>0.52200917353225185</v>
+        <v>0.57969283740644395</v>
       </c>
       <c r="BG51" s="0">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="BM52" s="0">
-        <v>0.50878929631221026</v>
+        <v>0.69785637809723577</v>
       </c>
       <c r="BN52" s="0">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="0">
-        <v>0.74754205231414395</v>
+        <v>0.9299240804615404</v>
       </c>
       <c r="AN53" s="0">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="BC53" s="0">
-        <v>0.68086684511291606</v>
+        <v>0.89737708558275597</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11241,7 +11241,7 @@
         <v>0</v>
       </c>
       <c r="BN54" s="0">
-        <v>0.66182152180515796</v>
+        <v>0.94605729318944165</v>
       </c>
       <c r="BO54" s="0">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="0">
-        <v>0.60571542561224501</v>
+        <v>0.88711980241992827</v>
       </c>
       <c r="V55" s="0">
         <v>0</v>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="AI55" s="0">
-        <v>0.69880225725690726</v>
+        <v>0.82631556512283399</v>
       </c>
       <c r="AJ55" s="0">
         <v>0</v>
@@ -11506,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>0.7055829203323899</v>
+        <v>0.88750933566758461</v>
       </c>
       <c r="R56" s="0">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="Z56" s="0">
-        <v>0.81230228397516413</v>
+        <v>0.90206090561151264</v>
       </c>
       <c r="AA56" s="0">
         <v>0</v>
@@ -11682,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="0">
-        <v>0.64458438624029846</v>
+        <v>0.69203475996501362</v>
       </c>
       <c r="H57" s="0">
         <v>0</v>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="AL57" s="0">
-        <v>0.52485716879135014</v>
+        <v>0.67314660260907166</v>
       </c>
       <c r="AM57" s="0">
         <v>0</v>
@@ -11957,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="AD58" s="0">
-        <v>0.7630571701429516</v>
+        <v>0.98131919256801758</v>
       </c>
       <c r="AE58" s="0">
         <v>0</v>
@@ -12199,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="AP59" s="0">
-        <v>0.6142505366630262</v>
+        <v>0.89938087861165228</v>
       </c>
       <c r="AQ59" s="0">
         <v>0</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="0">
-        <v>0.60510702644179126</v>
+        <v>0.83503748758083152</v>
       </c>
       <c r="U60" s="0">
         <v>0</v>
@@ -12548,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="0">
-        <v>0.77179859572758003</v>
+        <v>0.96533577026540307</v>
       </c>
       <c r="V61" s="0">
         <v>0</v>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="AN61" s="0">
-        <v>0.63975045339157022</v>
+        <v>0.82861537907834215</v>
       </c>
       <c r="AO61" s="0">
         <v>0</v>
@@ -12647,7 +12647,7 @@
         <v>0</v>
       </c>
       <c r="BB61" s="0">
-        <v>0.76172683784834538</v>
+        <v>0.86656210227339869</v>
       </c>
       <c r="BC61" s="0">
         <v>0</v>
@@ -12874,13 +12874,13 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>0.63688465810333295</v>
+        <v>0.92973249849294948</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.58439812623425336</v>
+        <v>0.77075295597894078</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12903,7 +12903,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="0">
-        <v>0.58860912286450096</v>
+        <v>0.66940990591836269</v>
       </c>
       <c r="C63" s="0">
         <v>0</v>
@@ -12942,7 +12942,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="0">
-        <v>0.77097965281424075</v>
+        <v>0.97163835790367747</v>
       </c>
       <c r="P63" s="0">
         <v>0</v>
@@ -13008,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="0">
-        <v>0.58659683792492046</v>
+        <v>0.91810027656034721</v>
       </c>
       <c r="AL63" s="0">
         <v>0</v>
@@ -13038,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="AU63" s="0">
-        <v>0.62824088778492371</v>
+        <v>0.97547184182106683</v>
       </c>
       <c r="AV63" s="0">
         <v>0</v>
@@ -13241,7 +13241,7 @@
         <v>0</v>
       </c>
       <c r="AT64" s="0">
-        <v>0.68920300316675243</v>
+        <v>0.90145439167467722</v>
       </c>
       <c r="AU64" s="0">
         <v>0</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="0">
-        <v>0.60383626082047892</v>
+        <v>0.61471532761856673</v>
       </c>
       <c r="L65" s="0">
         <v>0</v>
@@ -13375,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="V65" s="0">
-        <v>0.82839674938669583</v>
+        <v>0.8361581678641119</v>
       </c>
       <c r="W65" s="0">
         <v>0</v>
@@ -13468,7 +13468,7 @@
         <v>0.69785637809723577</v>
       </c>
       <c r="BA65" s="0">
-        <v>0.6306646821723032</v>
+        <v>0.882864324082</v>
       </c>
       <c r="BB65" s="0">
         <v>0</v>
@@ -13686,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="BE66" s="0">
-        <v>0.61343324400380272</v>
+        <v>0.99850804854251396</v>
       </c>
       <c r="BF66" s="0">
         <v>0</v>
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="AT67" s="0">
-        <v>0.76728408318278696</v>
+        <v>0.82747518917787533</v>
       </c>
       <c r="AU67" s="0">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="BE67" s="0">
-        <v>0.5637177570119114</v>
+        <v>0.77206603345776492</v>
       </c>
       <c r="BF67" s="0">
         <v>0</v>
@@ -13942,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="0">
-        <v>0.91995614433504858</v>
+        <v>0.9464508020095711</v>
       </c>
       <c r="F68" s="0">
         <v>0</v>
@@ -14041,7 +14041,7 @@
         <v>0.89998868464203508</v>
       </c>
       <c r="AL68" s="0">
-        <v>0.5709612993152926</v>
+        <v>0.58042667229973599</v>
       </c>
       <c r="AM68" s="0">
         <v>0</v>
